--- a/time/gantt_bump(temporaire).xlsx
+++ b/time/gantt_bump(temporaire).xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariejessica\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15000" windowHeight="8475"/>
   </bookViews>
   <sheets>
     <sheet name="effort" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -516,6 +521,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -563,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,7 +606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,7 +818,7 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,27 +912,27 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="0"/>
@@ -1368,10 +1376,14 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
@@ -1398,10 +1410,16 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="14">
+        <v>10</v>
+      </c>
+      <c r="K18" s="14">
+        <v>7</v>
+      </c>
       <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="M18" s="14">
+        <v>7</v>
+      </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -1428,10 +1446,16 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="14">
+        <v>2</v>
+      </c>
       <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="M19" s="14">
+        <v>5</v>
+      </c>
+      <c r="N19" s="14">
+        <v>5</v>
+      </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
@@ -1460,7 +1484,9 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="14">
+        <v>1</v>
+      </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
